--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2638773333333334</v>
+        <v>0.041827</v>
       </c>
       <c r="H2">
-        <v>0.791632</v>
+        <v>0.125481</v>
       </c>
       <c r="I2">
-        <v>0.0472992197617186</v>
+        <v>0.006279874897961605</v>
       </c>
       <c r="J2">
-        <v>0.04729921976171859</v>
+        <v>0.006279874897961606</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N2">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O2">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P2">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q2">
-        <v>0.08903230022577778</v>
+        <v>0.01360237741966667</v>
       </c>
       <c r="R2">
-        <v>0.8012907020319999</v>
+        <v>0.122421396777</v>
       </c>
       <c r="S2">
-        <v>0.0008222330214503627</v>
+        <v>9.939691699955282E-05</v>
       </c>
       <c r="T2">
-        <v>0.0008222330214503627</v>
+        <v>9.939691699955284E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2638773333333334</v>
+        <v>0.041827</v>
       </c>
       <c r="H3">
-        <v>0.791632</v>
+        <v>0.125481</v>
       </c>
       <c r="I3">
-        <v>0.0472992197617186</v>
+        <v>0.006279874897961605</v>
       </c>
       <c r="J3">
-        <v>0.04729921976171859</v>
+        <v>0.006279874897961606</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.133935</v>
       </c>
       <c r="O3">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P3">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q3">
-        <v>4.409736359102222</v>
+        <v>0.6989840330816667</v>
       </c>
       <c r="R3">
-        <v>39.68762723192</v>
+        <v>6.290856297735001</v>
       </c>
       <c r="S3">
-        <v>0.04072489243959065</v>
+        <v>0.005107699615787728</v>
       </c>
       <c r="T3">
-        <v>0.04072489243959065</v>
+        <v>0.005107699615787729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2638773333333334</v>
+        <v>0.041827</v>
       </c>
       <c r="H4">
-        <v>0.791632</v>
+        <v>0.125481</v>
       </c>
       <c r="I4">
-        <v>0.0472992197617186</v>
+        <v>0.006279874897961605</v>
       </c>
       <c r="J4">
-        <v>0.04729921976171859</v>
+        <v>0.006279874897961606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N4">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O4">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P4">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q4">
-        <v>0.6228431276106667</v>
+        <v>0.1468087406656667</v>
       </c>
       <c r="R4">
-        <v>5.605588148496</v>
+        <v>1.321278665991</v>
       </c>
       <c r="S4">
-        <v>0.005752094300677588</v>
+        <v>0.001072778365174324</v>
       </c>
       <c r="T4">
-        <v>0.005752094300677589</v>
+        <v>0.001072778365174324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.383742</v>
       </c>
       <c r="I5">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="J5">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N5">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O5">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P5">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q5">
-        <v>0.3805585595713333</v>
+        <v>0.3668040243126666</v>
       </c>
       <c r="R5">
-        <v>3.425027036142</v>
+        <v>3.301236218814</v>
       </c>
       <c r="S5">
-        <v>0.00351454262645837</v>
+        <v>0.002680354178894819</v>
       </c>
       <c r="T5">
-        <v>0.003514542626458371</v>
+        <v>0.00268035417889482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.383742</v>
       </c>
       <c r="I6">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="J6">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.133935</v>
       </c>
       <c r="O6">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P6">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q6">
         <v>18.84892238719667</v>
@@ -818,10 +818,10 @@
         <v>169.64030148477</v>
       </c>
       <c r="S6">
-        <v>0.1740739750203697</v>
+        <v>0.1377350970531379</v>
       </c>
       <c r="T6">
-        <v>0.1740739750203698</v>
+        <v>0.1377350970531379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.383742</v>
       </c>
       <c r="I7">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="J7">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N7">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O7">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P7">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q7">
-        <v>2.662272937814</v>
+        <v>3.958869484284666</v>
       </c>
       <c r="R7">
-        <v>23.960456440326</v>
+        <v>35.629825358562</v>
       </c>
       <c r="S7">
-        <v>0.02458668051969018</v>
+        <v>0.02892872395766448</v>
       </c>
       <c r="T7">
-        <v>0.02458668051969019</v>
+        <v>0.02892872395766448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.187102666666667</v>
+        <v>5.490742</v>
       </c>
       <c r="H8">
-        <v>12.561308</v>
+        <v>16.472226</v>
       </c>
       <c r="I8">
-        <v>0.7505255820717631</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="J8">
-        <v>0.750525582071763</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N8">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O8">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P8">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q8">
-        <v>1.412729835434222</v>
+        <v>1.785620412604667</v>
       </c>
       <c r="R8">
-        <v>12.714568518908</v>
+        <v>16.070583713442</v>
       </c>
       <c r="S8">
-        <v>0.01304687308017944</v>
+        <v>0.01304809876013003</v>
       </c>
       <c r="T8">
-        <v>0.01304687308017944</v>
+        <v>0.01304809876013003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.187102666666667</v>
+        <v>5.490742</v>
       </c>
       <c r="H9">
-        <v>12.561308</v>
+        <v>16.472226</v>
       </c>
       <c r="I9">
-        <v>0.7505255820717631</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="J9">
-        <v>0.750525582071763</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.133935</v>
       </c>
       <c r="O9">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P9">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q9">
-        <v>69.97197764299779</v>
+        <v>91.75750084325666</v>
       </c>
       <c r="R9">
-        <v>629.7477987869801</v>
+        <v>825.81750758931</v>
       </c>
       <c r="S9">
-        <v>0.6462067187791417</v>
+        <v>0.6705013700191155</v>
       </c>
       <c r="T9">
-        <v>0.6462067187791418</v>
+        <v>0.6705013700191155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.187102666666667</v>
+        <v>5.490742</v>
       </c>
       <c r="H10">
-        <v>12.561308</v>
+        <v>16.472226</v>
       </c>
       <c r="I10">
-        <v>0.7505255820717631</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="J10">
-        <v>0.750525582071763</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N10">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O10">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P10">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q10">
-        <v>9.883031966369336</v>
+        <v>19.27197547852067</v>
       </c>
       <c r="R10">
-        <v>88.94728769732401</v>
+        <v>173.447779306686</v>
       </c>
       <c r="S10">
-        <v>0.09127199021244188</v>
+        <v>0.1408264811330958</v>
       </c>
       <c r="T10">
-        <v>0.09127199021244189</v>
+        <v>0.1408264811330958</v>
       </c>
     </row>
   </sheetData>
